--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC0CFC5-0274-488A-888B-AB014ABD238D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED66AB-29C3-4BD3-89F6-EFAD0009A5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="84">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,6 +490,45 @@
     <t>ユーザー情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ルーム内の質問投稿データベース</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シツモントウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ルーム内の質問に対する回答データベース</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java01のように書いていく</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -952,8 +987,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -975,13 +1010,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1030,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -1045,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -1060,40 +1095,44 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>22</v>
@@ -1105,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
@@ -1120,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -1357,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1384,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1414,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1428,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1481,26 +1520,26 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (15),</v>
+        <v>id varchar (15),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -1511,10 +1550,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -1522,7 +1561,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1871,7 +1910,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1897,13 +1936,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1927,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1941,7 +1980,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1991,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
@@ -2005,11 +2044,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2021,13 +2058,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -2035,7 +2072,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2049,17 +2086,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2073,23 +2110,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2429,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2459,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2473,7 +2510,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2523,23 +2560,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2553,13 +2590,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2567,7 +2604,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2581,13 +2618,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>15</v>
@@ -2595,7 +2632,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2609,13 +2646,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>200</v>
@@ -2623,7 +2660,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2637,19 +2674,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2943,7 +2980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D5FE8E-8658-4794-BDE2-BF66509ACBD8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2970,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3000,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3014,7 +3051,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3064,23 +3101,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3094,13 +3131,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
@@ -3108,7 +3145,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3122,13 +3159,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
@@ -3136,7 +3173,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3448,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFC7762-9B37-4A0E-8E11-87E8E0E117B8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3475,13 +3512,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -3505,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3519,7 +3556,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3569,23 +3606,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>15</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -3599,13 +3636,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -3613,7 +3650,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3627,21 +3664,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3653,21 +3692,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3679,21 +3720,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -4012,13 +4055,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -4042,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4056,7 +4099,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4106,23 +4149,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4136,13 +4179,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>200</v>
@@ -4150,7 +4193,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4444,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4471,13 +4514,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -4501,7 +4544,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4515,7 +4558,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4565,26 +4608,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>question_number char (10),</v>
@@ -4595,19 +4640,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4621,13 +4666,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3">
         <v>80</v>
@@ -4635,7 +4680,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4649,23 +4694,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED66AB-29C3-4BD3-89F6-EFAD0009A5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475AD80-AB3D-4170-BFFA-3AC2C5FA3D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="113">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -530,6 +530,149 @@
     <rPh sb="10" eb="11">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>question_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問ID</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウイd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ああ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありがとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランク表示のため</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回数</t>
+    <rPh sb="0" eb="2">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受験するたびに1が足される(未受験かの判断)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：ブロンズ、２：シルバー、３：ゴールド、４：プラチナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択番号</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -613,13 +756,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +805,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,7 +1569,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1907,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2F3AF-EA9A-4375-96EA-A29E6DF2EA6D}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1944,8 +2116,12 @@
       <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1958,8 +2134,12 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -1972,8 +2152,12 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -1986,8 +2170,28 @@
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2030,10 +2234,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -2049,8 +2253,8 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>name varchar (15),</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>id varchar (15)</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2058,41 +2262,43 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>text varchar (200),</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -2102,7 +2308,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>time  ,</v>
+        <v>name varchar (15),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -2110,20 +2316,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>27</v>
@@ -2132,25 +2336,33 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id varchar (15)</v>
+        <v>text varchar (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>time date ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2167,7 +2379,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2185,7 +2397,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2424,7 +2636,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2437,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49492E4B-E477-496E-8256-5E5E05616DFD}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2488,8 +2718,12 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -2502,8 +2736,12 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
@@ -2516,8 +2754,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2556,50 +2798,47 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (15),</v>
-      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2607,27 +2846,29 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>title varchar (20),</v>
+        <v>id varchar (15),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2638,24 +2879,24 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>name varchar (15),</v>
+        <v>title varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2666,23 +2907,25 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>text varchar (200),</v>
+        <v>name varchar (15),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
@@ -2692,29 +2935,37 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">good_number int </v>
+        <v>text varchar (200),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">good_number int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="3"/>
@@ -2727,12 +2978,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>8</v>
       </c>
       <c r="B17" s="3"/>
@@ -2750,7 +3001,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="3"/>
@@ -2768,7 +3019,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" s="3"/>
@@ -2786,7 +3037,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="3"/>
@@ -2804,7 +3055,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>12</v>
       </c>
       <c r="B21" s="3"/>
@@ -2822,7 +3073,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -2840,7 +3091,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>14</v>
       </c>
       <c r="B23" s="3"/>
@@ -2858,7 +3109,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="3"/>
@@ -2876,7 +3127,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>16</v>
       </c>
       <c r="B25" s="3"/>
@@ -2894,7 +3145,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
@@ -2912,7 +3163,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
@@ -2930,7 +3181,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -2948,7 +3199,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>20</v>
       </c>
       <c r="B29" s="3"/>
@@ -2966,22 +3217,41 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="A30" s="1">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D5FE8E-8658-4794-BDE2-BF66509ACBD8}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3015,8 +3285,12 @@
       <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -3029,8 +3303,13 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
       <c r="G3" s="5"/>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
@@ -3043,7 +3322,9 @@
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -3057,8 +3338,40 @@
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -3097,78 +3410,72 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>name varchar (15),</v>
-      </c>
+      <c r="G11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3176,51 +3483,73 @@
         <v>27</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>text varchar (200)</v>
+      <c r="J12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>name varchar (15),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>text varchar (200)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>7</v>
+      <c r="A15" s="1">
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3232,13 +3561,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>8</v>
+      <c r="A16" s="1">
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3250,13 +3579,13 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>9</v>
+      <c r="A17" s="1">
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3273,8 +3602,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>10</v>
+      <c r="A18" s="1">
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3291,8 +3620,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>11</v>
+      <c r="A19" s="1">
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3309,8 +3638,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>12</v>
+      <c r="A20" s="1">
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3327,8 +3656,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>13</v>
+      <c r="A21" s="1">
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3345,8 +3674,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>14</v>
+      <c r="A22" s="1">
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3363,8 +3692,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>15</v>
+      <c r="A23" s="1">
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3381,8 +3710,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>16</v>
+      <c r="A24" s="1">
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3399,8 +3728,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>17</v>
+      <c r="A25" s="1">
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3417,8 +3746,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>18</v>
+      <c r="A26" s="1">
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3435,8 +3764,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>19</v>
+      <c r="A27" s="1">
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3453,8 +3782,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>20</v>
+      <c r="A28" s="1">
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3471,7 +3800,43 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L29" t="s">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3483,10 +3848,643 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFC7762-9B37-4A0E-8E11-87E8E0E117B8}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table test_result (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id varchar (15),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>genre varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>correct_answer_rate double ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>rank int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>correct_answer int ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">number int </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF4338A-DA25-40BD-975B-C9C7CBCB3B9B}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3534,36 +4532,66 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -3598,7 +4626,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table test_result (</v>
+        <v>create table test_question (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3606,16 +4634,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -3628,7 +4656,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (15),</v>
+        <v>question_number char (10),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3636,16 +4664,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3654,98 +4682,68 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>genre varchar (20),</v>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>correct_answer_rate double ,</v>
+        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rank int ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">correct_answer int </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3757,13 +4755,13 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3781,7 +4779,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3799,7 +4797,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3817,7 +4815,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3835,7 +4833,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3853,7 +4851,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3871,7 +4869,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3889,7 +4887,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3907,7 +4905,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3925,7 +4923,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3943,7 +4941,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3960,61 +4958,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="L27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4024,12 +4968,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF4338A-DA25-40BD-975B-C9C7CBCB3B9B}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4055,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -4063,8 +5007,12 @@
       <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -4077,36 +5025,56 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -4141,7 +5109,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table test_question (</v>
+        <v>create table test_choice (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4168,7 +5136,9 @@
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>question_number char (10),</v>
@@ -4179,18 +5149,18 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
@@ -4206,36 +5176,56 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>80</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>choice varchar (80),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">true_false bit </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4481,483 +5471,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table test_choice (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_number char (10),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>80</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>choice varchar (80),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">true_false bit </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>10</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>17</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>18</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>19</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2475AD80-AB3D-4170-BFFA-3AC2C5FA3D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F0B59-EE0E-4B06-A2F7-19950097330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="120">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -668,11 +668,78 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1：ブロンズ、２：シルバー、３：ゴールド、４：プラチナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適当なIDを一つ入力</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適当なパスワードを一つだけ入力</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html, css,javascript,java,sql,servletは挿入</t>
+    <rPh sb="38" eb="40">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：ブロンズ、２：シルバー、３：ゴールド、４：プラチナ　5：ランクなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java01～java20*6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題文も挿入</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4を挿入</t>
+    <rPh sb="8" eb="10">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢も書き込む</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,7 +1636,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1708,7 +1775,9 @@
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id varchar (15),</v>
@@ -1736,7 +1805,9 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>password varchar (20)</v>
@@ -2074,6 +2145,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2082,7 +2154,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2670,7 +2742,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,7 +3029,9 @@
       <c r="H15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3851,7 +3925,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4094,7 +4168,9 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>genre varchar (20),</v>
@@ -4147,11 +4223,9 @@
       <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4484,7 +4558,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4653,7 +4727,9 @@
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>question_number char (10),</v>
@@ -4681,7 +4757,9 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -4973,7 +5051,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5011,7 +5089,7 @@
         <v>95</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -5166,7 +5244,9 @@
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -5194,7 +5274,9 @@
         <v>27</v>
       </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>choice varchar (80),</v>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F0B59-EE0E-4B06-A2F7-19950097330A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9606A1-8A47-4ABA-9E64-4F78BCFC13C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="225" windowWidth="15375" windowHeight="7875" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="test_result" sheetId="11" r:id="rId6"/>
     <sheet name="test_question" sheetId="12" r:id="rId7"/>
     <sheet name="test_choice" sheetId="13" r:id="rId8"/>
+    <sheet name="Test_choice_detail" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="128">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -739,6 +740,61 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題選択</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choice_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArryaList&lt;Test_choice_detail&gt;</t>
+  </si>
+  <si>
+    <t>Test_choice_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢を一クラスとし、配列する</t>
+    <rPh sb="0" eb="3">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中垣内咲希</t>
+    <rPh sb="0" eb="3">
+      <t>ナカガキウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト問題選択番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中垣内咲希</t>
+    <rPh sb="0" eb="5">
+      <t>ナカカキウチサキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5050,8 +5106,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44361</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table test_choice (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>question_number char (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3580DA-6CEF-45B7-ACCF-9379F0C23634}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5083,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>95</v>
@@ -5101,7 +5646,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>44354</v>
+        <v>44361</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>96</v>
@@ -5133,7 +5678,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5187,7 +5732,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table test_choice (</v>
+        <v>create table Test_choice_detail (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -5195,17 +5740,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5215,11 +5758,11 @@
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_number char (10),</v>
+        <v>118</v>
+      </c>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -5227,47 +5770,45 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+        <v>119</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L25" si="0">C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>choice varchar (80),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>80</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -5275,44 +5816,34 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>choice varchar (80),</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">true_false bit </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">true_false bit </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5330,7 +5861,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5348,7 +5879,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5366,7 +5897,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5384,7 +5915,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5402,7 +5933,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5420,7 +5951,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5438,7 +5969,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5456,7 +5987,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5474,7 +6005,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5492,7 +6023,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5510,7 +6041,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5527,25 +6058,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L27" t="s">
+      <c r="L26" t="s">
         <v>20</v>
       </c>
     </row>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9606A1-8A47-4ABA-9E64-4F78BCFC13C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE511C-70C2-442F-B17C-35AB79419B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="225" windowWidth="15375" windowHeight="7875" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10785" yWindow="1755" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="143">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -758,9 +758,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ArryaList&lt;Test_choice_detail&gt;</t>
-  </si>
-  <si>
     <t>Test_choice_detail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -796,6 +793,70 @@
     <rPh sb="0" eb="5">
       <t>ナカカキウチサキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正誤フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_choice.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  question_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  choice_detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArryaList&lt;Test_choice_detail&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test_choice_detail.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  choice_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  choice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  true_false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArryaList&lt;Test_choice_detail&gt;(int)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -829,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +900,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +1022,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5104,10 +5204,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5171,13 +5271,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>96</v>
@@ -5293,7 +5393,7 @@
         <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5303,7 +5403,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5585,6 +5685,150 @@
         <v>20</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="13">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="15">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5595,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3580DA-6CEF-45B7-ACCF-9379F0C23634}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5628,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>95</v>
@@ -5678,7 +5922,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE511C-70C2-442F-B17C-35AB79419B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBF485-AB20-40C5-8ACB-4D84DCADFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="1755" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="142">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -744,34 +744,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>問題選択</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>choice_detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Test_choice_detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択肢を一クラスとし、配列する</t>
-    <rPh sb="0" eb="3">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハイレツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -856,7 +829,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ArryaList&lt;Test_choice_detail&gt;(int)</t>
+    <t>java002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4080,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFC7762-9B37-4A0E-8E11-87E8E0E117B8}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4714,7 +4695,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4783,8 +4764,8 @@
       <c r="F4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
+      <c r="G4" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -4802,8 +4783,8 @@
       <c r="F5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="5">
-        <v>2</v>
+      <c r="G5" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -4811,16 +4792,16 @@
       <c r="F6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G7">
-        <v>2</v>
+      <c r="G7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -5199,6 +5180,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5206,8 +5188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5271,13 +5253,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>96</v>
@@ -5387,23 +5369,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L11" t="e">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
@@ -5414,36 +5398,58 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>80</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>choice varchar (80),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">true_false bit </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -5693,10 +5699,10 @@
         <v>111</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
@@ -5707,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -5721,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -5735,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D31" s="14">
         <v>0</v>
@@ -5749,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="15">
         <v>0</v>
@@ -5757,17 +5763,17 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -5777,10 +5783,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5793,7 +5799,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5801,7 +5807,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3">
@@ -5811,17 +5817,17 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -5840,7 +5846,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B10" sqref="B10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5872,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>95</v>
@@ -5922,7 +5928,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBF485-AB20-40C5-8ACB-4D84DCADFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E18DEE-621D-43C9-A240-9E5CA9F38DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1995" windowWidth="11040" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -4061,7 +4061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFC7762-9B37-4A0E-8E11-87E8E0E117B8}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4694,8 +4694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF4338A-DA25-40BD-975B-C9C7CBCB3B9B}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4854,7 +4854,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_number char (10),</v>
+        <v>question_number char (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4886,7 +4886,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5188,8 +5188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2794065-879A-487B-A279-D2ED0D4783CD}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5346,7 +5346,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>question_number char (10),</v>
+        <v>question_number char (20),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -5408,7 +5408,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ref="L12:L26" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>choice varchar (80),</v>
+        <v>choice varchar (150),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E18DEE-621D-43C9-A240-9E5CA9F38DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420923D-3AFF-4250-8986-BE6F77CEE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1995" windowWidth="11040" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="145">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -838,6 +838,30 @@
   </si>
   <si>
     <t>css01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付画像</t>
+    <rPh sb="0" eb="4">
+      <t>テンプガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を格納する行</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1772,524 +1796,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
-        <v>44354</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id varchar (15),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>password varchar (20)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2F3AF-EA9A-4375-96EA-A29E6DF2EA6D}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
@@ -2317,20 +1823,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -2343,64 +1845,36 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="8">
-        <v>2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F6" s="10">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>3</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -2435,7 +1909,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chat (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2454,16 +1928,20 @@
       <c r="E10" s="3">
         <v>15</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>id varchar (15)</v>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id varchar (15),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -2471,107 +1949,83 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>password varchar (20)</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3">
-        <v>15</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>name varchar (15),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>text varchar (200),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
-        <v>time date ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2588,7 +2042,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2606,7 +2060,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2845,25 +2299,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2874,12 +2310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49492E4B-E477-496E-8256-5E5E05616DFD}">
-  <dimension ref="A1:L31"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2F3AF-EA9A-4375-96EA-A29E6DF2EA6D}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2913,8 +2349,12 @@
       <c r="E2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="F2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -2927,11 +2367,11 @@
       <c r="E3" s="7">
         <v>44354</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>51</v>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2939,17 +2379,17 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="5">
-        <v>1</v>
+      <c r="F4" s="8">
+        <v>2</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -2957,17 +2397,33 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -3003,81 +2459,78 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table question (</v>
+        <v>create table chat (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>id varchar (15)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id varchar (15),</v>
-      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3088,24 +2541,24 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>title varchar (20),</v>
+        <v>name varchar (15),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="3">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3115,25 +2568,25 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>name varchar (15),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>text varchar (200),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3141,24 +2594,22 @@
         <v>27</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>text varchar (200),</v>
+      <c r="J14" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3166,17 +2617,15 @@
       <c r="H15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">good_number int </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C10&lt;&gt;"",",","")</f>
+        <v>time date ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3"/>
@@ -3189,12 +2638,12 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3"/>
@@ -3207,12 +2656,12 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3"/>
@@ -3230,7 +2679,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3"/>
@@ -3248,7 +2697,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3"/>
@@ -3266,7 +2715,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3"/>
@@ -3284,7 +2733,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -3302,7 +2751,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3"/>
@@ -3320,7 +2769,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
       <c r="B24" s="3"/>
@@ -3338,7 +2787,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
       <c r="B25" s="3"/>
@@ -3356,7 +2805,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
@@ -3374,7 +2823,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
       <c r="B27" s="3"/>
@@ -3392,7 +2841,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -3410,7 +2859,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
       <c r="B29" s="3"/>
@@ -3428,7 +2877,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>21</v>
       </c>
       <c r="B30" s="3"/>
@@ -3446,7 +2895,632 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L31" t="s">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49492E4B-E477-496E-8256-5E5E05616DFD}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44354</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table question (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>id varchar (15),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>title varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>name varchar (15),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>text varchar (200),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">good_number int </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
         <v>20</v>
       </c>
     </row>

--- a/documents/DB定義書_SkyNH.xlsx
+++ b/documents/DB定義書_SkyNH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-2\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F420923D-3AFF-4250-8986-BE6F77CEE10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902956C4-87A6-420D-AC29-302E396C129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
